--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -676,19 +676,19 @@
     <t>['20', '25', '43', '67', '84']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
-    <t>['61']</t>
-  </si>
-  <si>
-    <t>['61', '90+7']</t>
+    <t>['62']</t>
   </si>
   <si>
     <t>['48']</t>
   </si>
   <si>
-    <t>['62']</t>
+    <t>['61', '90+7']</t>
   </si>
   <si>
     <t>['13', '48']</t>
@@ -703,19 +703,19 @@
     <t>['90+9']</t>
   </si>
   <si>
-    <t>['47']</t>
-  </si>
-  <si>
-    <t>['74']</t>
+    <t>['14', '51', '87']</t>
   </si>
   <si>
     <t>['20']</t>
   </si>
   <si>
-    <t>['14', '51', '87']</t>
+    <t>['23', '46']</t>
   </si>
   <si>
-    <t>['23', '46']</t>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -1033,13 +1033,13 @@
     <t>['57', '65', '77']</t>
   </si>
   <si>
-    <t>['11', '30', '33', '78']</t>
+    <t>['30', '81']</t>
   </si>
   <si>
     <t>['45+10', '50', '54', '69']</t>
   </si>
   <si>
-    <t>['30', '81']</t>
+    <t>['11', '30', '33', '78']</t>
   </si>
 </sst>
 </file>
@@ -5574,7 +5574,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -7428,7 +7428,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -12784,7 +12784,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -18140,7 +18140,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -40552,7 +40552,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7332549</v>
+        <v>7332548</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40567,10 +40567,10 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H191" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -40582,169 +40582,169 @@
         <v>1</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O191" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="P191" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q191">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="R191">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>3.82</v>
+        <v>3.35</v>
       </c>
       <c r="T191">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="U191">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="V191">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W191">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X191">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y191">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z191">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA191">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB191">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AC191">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD191">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE191">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF191">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AG191">
         <v>1.8</v>
       </c>
       <c r="AH191">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AI191">
+        <v>1.65</v>
+      </c>
+      <c r="AJ191">
+        <v>2.05</v>
+      </c>
+      <c r="AK191">
+        <v>1.4</v>
+      </c>
+      <c r="AL191">
+        <v>1.25</v>
+      </c>
+      <c r="AM191">
+        <v>1.57</v>
+      </c>
+      <c r="AN191">
+        <v>0.86</v>
+      </c>
+      <c r="AO191">
+        <v>1.36</v>
+      </c>
+      <c r="AP191">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ191">
+        <v>1.5</v>
+      </c>
+      <c r="AR191">
         <v>1.66</v>
       </c>
-      <c r="AJ191">
-        <v>2.04</v>
-      </c>
-      <c r="AK191">
-        <v>1.31</v>
-      </c>
-      <c r="AL191">
-        <v>1.27</v>
-      </c>
-      <c r="AM191">
-        <v>1.64</v>
-      </c>
-      <c r="AN191">
-        <v>1.43</v>
-      </c>
-      <c r="AO191">
-        <v>0.85</v>
-      </c>
-      <c r="AP191">
-        <v>1.44</v>
-      </c>
-      <c r="AQ191">
-        <v>0.72</v>
-      </c>
-      <c r="AR191">
-        <v>1.4</v>
-      </c>
       <c r="AS191">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT191">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>5</v>
+      </c>
+      <c r="AW191">
         <v>6</v>
       </c>
-      <c r="AV191">
-        <v>2</v>
-      </c>
-      <c r="AW191">
-        <v>12</v>
-      </c>
       <c r="AX191">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY191">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AZ191">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA191">
         <v>4</v>
       </c>
       <c r="BB191">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC191">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD191">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="BE191">
-        <v>7.8</v>
+        <v>5.95</v>
       </c>
       <c r="BF191">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BG191">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="BH191">
-        <v>2.61</v>
+        <v>2.27</v>
       </c>
       <c r="BI191">
-        <v>1.71</v>
+        <v>2.03</v>
       </c>
       <c r="BJ191">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="BK191">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="BL191">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="BM191">
-        <v>2.88</v>
+        <v>3.62</v>
       </c>
       <c r="BN191">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="BO191">
         <v>0</v>
@@ -40758,7 +40758,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7332547</v>
+        <v>7332549</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40773,58 +40773,58 @@
         <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H192" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
         <v>1</v>
       </c>
       <c r="L192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O192" t="s">
+        <v>210</v>
+      </c>
+      <c r="P192" t="s">
         <v>88</v>
       </c>
-      <c r="P192" t="s">
-        <v>231</v>
-      </c>
       <c r="Q192">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="R192">
-        <v>2.16</v>
+        <v>2.27</v>
       </c>
       <c r="S192">
-        <v>3.6</v>
+        <v>3.82</v>
       </c>
       <c r="T192">
         <v>1.35</v>
       </c>
       <c r="U192">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="V192">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="W192">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X192">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Y192">
         <v>1.09</v>
@@ -40833,130 +40833,130 @@
         <v>2.05</v>
       </c>
       <c r="AA192">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AB192">
         <v>3</v>
       </c>
       <c r="AC192">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD192">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE192">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF192">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AG192">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH192">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AI192">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="AJ192">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="AK192">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AL192">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AM192">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AN192">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO192">
-        <v>2.07</v>
+        <v>0.85</v>
       </c>
       <c r="AP192">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AQ192">
-        <v>2.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR192">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AS192">
-        <v>1.64</v>
+        <v>1.31</v>
       </c>
       <c r="AT192">
-        <v>3.47</v>
+        <v>2.71</v>
       </c>
       <c r="AU192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV192">
         <v>2</v>
       </c>
       <c r="AW192">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX192">
         <v>5</v>
       </c>
       <c r="AY192">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ192">
         <v>7</v>
       </c>
       <c r="BA192">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB192">
         <v>1</v>
       </c>
       <c r="BC192">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD192">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="BE192">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="BF192">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="BG192">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="BH192">
-        <v>3.28</v>
+        <v>2.61</v>
       </c>
       <c r="BI192">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="BJ192">
-        <v>2.46</v>
+        <v>2.11</v>
       </c>
       <c r="BK192">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="BL192">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="BM192">
-        <v>2.39</v>
+        <v>2.88</v>
       </c>
       <c r="BN192">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="BO192">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="BP192">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40964,7 +40964,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7332548</v>
+        <v>7332547</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40979,70 +40979,70 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H193" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193">
         <v>1</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193">
         <v>1</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O193" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="P193" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="Q193">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="R193">
+        <v>2.16</v>
+      </c>
+      <c r="S193">
+        <v>3.6</v>
+      </c>
+      <c r="T193">
+        <v>1.35</v>
+      </c>
+      <c r="U193">
+        <v>2.88</v>
+      </c>
+      <c r="V193">
+        <v>2.62</v>
+      </c>
+      <c r="W193">
+        <v>1.45</v>
+      </c>
+      <c r="X193">
+        <v>6.4</v>
+      </c>
+      <c r="Y193">
+        <v>1.09</v>
+      </c>
+      <c r="Z193">
         <v>2.05</v>
       </c>
-      <c r="S193">
-        <v>3.35</v>
-      </c>
-      <c r="T193">
-        <v>1.38</v>
-      </c>
-      <c r="U193">
-        <v>2.8</v>
-      </c>
-      <c r="V193">
-        <v>2.75</v>
-      </c>
-      <c r="W193">
-        <v>1.4</v>
-      </c>
-      <c r="X193">
-        <v>6.5</v>
-      </c>
-      <c r="Y193">
-        <v>1.1</v>
-      </c>
-      <c r="Z193">
-        <v>2.2</v>
-      </c>
       <c r="AA193">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB193">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AC193">
         <v>1.05</v>
@@ -41051,16 +41051,16 @@
         <v>8.5</v>
       </c>
       <c r="AE193">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG193">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH193">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AI193">
         <v>1.65</v>
@@ -41069,100 +41069,100 @@
         <v>2.05</v>
       </c>
       <c r="AK193">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AL193">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM193">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AN193">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AO193">
-        <v>1.36</v>
+        <v>2.07</v>
       </c>
       <c r="AP193">
-        <v>0.9399999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="AQ193">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AR193">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="AS193">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="AT193">
-        <v>2.87</v>
+        <v>3.47</v>
       </c>
       <c r="AU193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV193">
+        <v>2</v>
+      </c>
+      <c r="AW193">
+        <v>11</v>
+      </c>
+      <c r="AX193">
         <v>5</v>
       </c>
-      <c r="AW193">
-        <v>6</v>
-      </c>
-      <c r="AX193">
-        <v>11</v>
-      </c>
       <c r="AY193">
+        <v>13</v>
+      </c>
+      <c r="AZ193">
+        <v>7</v>
+      </c>
+      <c r="BA193">
+        <v>8</v>
+      </c>
+      <c r="BB193">
+        <v>1</v>
+      </c>
+      <c r="BC193">
         <v>9</v>
       </c>
-      <c r="AZ193">
-        <v>16</v>
-      </c>
-      <c r="BA193">
-        <v>4</v>
-      </c>
-      <c r="BB193">
-        <v>6</v>
-      </c>
-      <c r="BC193">
-        <v>10</v>
-      </c>
       <c r="BD193">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="BE193">
-        <v>5.95</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF193">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="BG193">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
       <c r="BH193">
-        <v>2.27</v>
+        <v>3.28</v>
       </c>
       <c r="BI193">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="BJ193">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="BK193">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="BL193">
-        <v>1.37</v>
+        <v>1.91</v>
       </c>
       <c r="BM193">
-        <v>3.62</v>
+        <v>2.39</v>
       </c>
       <c r="BN193">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="BO193">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="BP193">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -43848,7 +43848,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>7332563</v>
+        <v>7332564</v>
       </c>
       <c r="C207" t="s">
         <v>68</v>
@@ -43860,13 +43860,13 @@
         <v>45584.1875</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H207" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -43878,133 +43878,133 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M207">
         <v>1</v>
       </c>
       <c r="N207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O207" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="P207" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="Q207">
+        <v>3.6</v>
+      </c>
+      <c r="R207">
+        <v>1.95</v>
+      </c>
+      <c r="S207">
+        <v>3.6</v>
+      </c>
+      <c r="T207">
+        <v>1.57</v>
+      </c>
+      <c r="U207">
+        <v>2.25</v>
+      </c>
+      <c r="V207">
+        <v>3.75</v>
+      </c>
+      <c r="W207">
+        <v>1.25</v>
+      </c>
+      <c r="X207">
+        <v>11</v>
+      </c>
+      <c r="Y207">
+        <v>1.05</v>
+      </c>
+      <c r="Z207">
+        <v>2.61</v>
+      </c>
+      <c r="AA207">
+        <v>3.02</v>
+      </c>
+      <c r="AB207">
+        <v>2.67</v>
+      </c>
+      <c r="AC207">
+        <v>0</v>
+      </c>
+      <c r="AD207">
+        <v>0</v>
+      </c>
+      <c r="AE207">
+        <v>1.5</v>
+      </c>
+      <c r="AF207">
+        <v>2.4</v>
+      </c>
+      <c r="AG207">
+        <v>2.45</v>
+      </c>
+      <c r="AH207">
+        <v>1.48</v>
+      </c>
+      <c r="AI207">
         <v>2.1</v>
       </c>
-      <c r="R207">
-        <v>2.4</v>
-      </c>
-      <c r="S207">
+      <c r="AJ207">
+        <v>1.67</v>
+      </c>
+      <c r="AK207">
+        <v>0</v>
+      </c>
+      <c r="AL207">
+        <v>0</v>
+      </c>
+      <c r="AM207">
+        <v>0</v>
+      </c>
+      <c r="AN207">
+        <v>1.13</v>
+      </c>
+      <c r="AO207">
+        <v>1.44</v>
+      </c>
+      <c r="AP207">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ207">
+        <v>1.5</v>
+      </c>
+      <c r="AR207">
+        <v>1.29</v>
+      </c>
+      <c r="AS207">
+        <v>1.24</v>
+      </c>
+      <c r="AT207">
+        <v>2.53</v>
+      </c>
+      <c r="AU207">
+        <v>3</v>
+      </c>
+      <c r="AV207">
+        <v>2</v>
+      </c>
+      <c r="AW207">
         <v>5</v>
       </c>
-      <c r="T207">
-        <v>1.3</v>
-      </c>
-      <c r="U207">
-        <v>3.4</v>
-      </c>
-      <c r="V207">
-        <v>2.5</v>
-      </c>
-      <c r="W207">
-        <v>1.5</v>
-      </c>
-      <c r="X207">
+      <c r="AX207">
         <v>6</v>
       </c>
-      <c r="Y207">
-        <v>1.13</v>
-      </c>
-      <c r="Z207">
-        <v>1.53</v>
-      </c>
-      <c r="AA207">
-        <v>3.67</v>
-      </c>
-      <c r="AB207">
-        <v>4.62</v>
-      </c>
-      <c r="AC207">
-        <v>0</v>
-      </c>
-      <c r="AD207">
-        <v>0</v>
-      </c>
-      <c r="AE207">
-        <v>1.8</v>
-      </c>
-      <c r="AF207">
-        <v>1.85</v>
-      </c>
-      <c r="AG207">
-        <v>1.65</v>
-      </c>
-      <c r="AH207">
-        <v>2.1</v>
-      </c>
-      <c r="AI207">
-        <v>1.73</v>
-      </c>
-      <c r="AJ207">
-        <v>2</v>
-      </c>
-      <c r="AK207">
-        <v>0</v>
-      </c>
-      <c r="AL207">
-        <v>0</v>
-      </c>
-      <c r="AM207">
-        <v>0</v>
-      </c>
-      <c r="AN207">
-        <v>1.4</v>
-      </c>
-      <c r="AO207">
-        <v>0.88</v>
-      </c>
-      <c r="AP207">
-        <v>1.39</v>
-      </c>
-      <c r="AQ207">
-        <v>0.83</v>
-      </c>
-      <c r="AR207">
-        <v>1.61</v>
-      </c>
-      <c r="AS207">
-        <v>1.23</v>
-      </c>
-      <c r="AT207">
-        <v>2.84</v>
-      </c>
-      <c r="AU207">
-        <v>6</v>
-      </c>
-      <c r="AV207">
-        <v>4</v>
-      </c>
-      <c r="AW207">
-        <v>9</v>
-      </c>
-      <c r="AX207">
-        <v>4</v>
-      </c>
       <c r="AY207">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ207">
         <v>8</v>
       </c>
       <c r="BA207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC207">
         <v>11</v>
@@ -44054,7 +44054,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7332564</v>
+        <v>7332563</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -44066,13 +44066,13 @@
         <v>45584.1875</v>
       </c>
       <c r="F208">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H208" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -44084,55 +44084,55 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M208">
         <v>1</v>
       </c>
       <c r="N208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O208" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="P208" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="Q208">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="S208">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T208">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="U208">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="V208">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="W208">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X208">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y208">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="Z208">
-        <v>2.61</v>
+        <v>1.53</v>
       </c>
       <c r="AA208">
-        <v>3.02</v>
+        <v>3.67</v>
       </c>
       <c r="AB208">
-        <v>2.67</v>
+        <v>4.62</v>
       </c>
       <c r="AC208">
         <v>0</v>
@@ -44141,22 +44141,22 @@
         <v>0</v>
       </c>
       <c r="AE208">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AF208">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="AG208">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="AH208">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="AI208">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AJ208">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AK208">
         <v>0</v>
@@ -44168,49 +44168,49 @@
         <v>0</v>
       </c>
       <c r="AN208">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AO208">
-        <v>1.44</v>
+        <v>0.88</v>
       </c>
       <c r="AP208">
-        <v>0.9399999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="AQ208">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR208">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="AS208">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT208">
-        <v>2.53</v>
+        <v>2.84</v>
       </c>
       <c r="AU208">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW208">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX208">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY208">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ208">
         <v>8</v>
       </c>
       <c r="BA208">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB208">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC208">
         <v>11</v>
@@ -46114,7 +46114,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>7332576</v>
+        <v>7332574</v>
       </c>
       <c r="C218" t="s">
         <v>68</v>
@@ -46126,13 +46126,13 @@
         <v>45594.3125</v>
       </c>
       <c r="F218">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H218" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -46144,55 +46144,55 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M218">
         <v>1</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O218" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="P218" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="Q218">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="R218">
         <v>2.2</v>
       </c>
       <c r="S218">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="T218">
+        <v>1.4</v>
+      </c>
+      <c r="U218">
+        <v>2.75</v>
+      </c>
+      <c r="V218">
+        <v>3</v>
+      </c>
+      <c r="W218">
         <v>1.36</v>
       </c>
-      <c r="U218">
-        <v>3</v>
-      </c>
-      <c r="V218">
-        <v>2.75</v>
-      </c>
-      <c r="W218">
-        <v>1.4</v>
-      </c>
       <c r="X218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y218">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z218">
-        <v>3.85</v>
+        <v>1.73</v>
       </c>
       <c r="AA218">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="AB218">
-        <v>1.94</v>
+        <v>4.7</v>
       </c>
       <c r="AC218">
         <v>1.05</v>
@@ -46201,52 +46201,52 @@
         <v>8.5</v>
       </c>
       <c r="AE218">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF218">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="AG218">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AH218">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AI218">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ218">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK218">
-        <v>1.85</v>
+        <v>1.14</v>
       </c>
       <c r="AL218">
+        <v>1.22</v>
+      </c>
+      <c r="AM218">
+        <v>2.1</v>
+      </c>
+      <c r="AN218">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO218">
         <v>1.25</v>
       </c>
-      <c r="AM218">
-        <v>1.2</v>
-      </c>
-      <c r="AN218">
-        <v>0.75</v>
-      </c>
-      <c r="AO218">
-        <v>1.38</v>
-      </c>
       <c r="AP218">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
         <v>1.28</v>
       </c>
       <c r="AR218">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="AS218">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT218">
-        <v>2.73</v>
+        <v>2.93</v>
       </c>
       <c r="AU218">
         <v>5</v>
@@ -46258,61 +46258,61 @@
         <v>5</v>
       </c>
       <c r="AX218">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY218">
         <v>10</v>
       </c>
       <c r="AZ218">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA218">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC218">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BD218">
-        <v>2.88</v>
+        <v>1.42</v>
       </c>
       <c r="BE218">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF218">
-        <v>1.63</v>
+        <v>3.76</v>
       </c>
       <c r="BG218">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="BH218">
-        <v>2.88</v>
+        <v>2.39</v>
       </c>
       <c r="BI218">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="BJ218">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="BK218">
-        <v>2.01</v>
+        <v>2.31</v>
       </c>
       <c r="BL218">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="BM218">
-        <v>2.61</v>
+        <v>3.14</v>
       </c>
       <c r="BN218">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="BO218">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="BP218">
-        <v>1.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:68">
@@ -46320,7 +46320,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>7332574</v>
+        <v>7332575</v>
       </c>
       <c r="C219" t="s">
         <v>68</v>
@@ -46332,13 +46332,13 @@
         <v>45594.3125</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H219" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -46350,169 +46350,169 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M219">
         <v>1</v>
       </c>
       <c r="N219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O219" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="P219" t="s">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="Q219">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R219">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S219">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T219">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U219">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V219">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W219">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X219">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y219">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z219">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="AA219">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AB219">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="AC219">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD219">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE219">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF219">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="AG219">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AH219">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AI219">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AJ219">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AK219">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AL219">
         <v>1.22</v>
       </c>
       <c r="AM219">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AN219">
-        <v>0.9399999999999999</v>
+        <v>2</v>
       </c>
       <c r="AO219">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AP219">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AQ219">
+        <v>1.78</v>
+      </c>
+      <c r="AR219">
+        <v>1.76</v>
+      </c>
+      <c r="AS219">
+        <v>1.46</v>
+      </c>
+      <c r="AT219">
+        <v>3.22</v>
+      </c>
+      <c r="AU219">
+        <v>6</v>
+      </c>
+      <c r="AV219">
+        <v>0</v>
+      </c>
+      <c r="AW219">
+        <v>10</v>
+      </c>
+      <c r="AX219">
+        <v>3</v>
+      </c>
+      <c r="AY219">
+        <v>16</v>
+      </c>
+      <c r="AZ219">
+        <v>3</v>
+      </c>
+      <c r="BA219">
+        <v>7</v>
+      </c>
+      <c r="BB219">
+        <v>3</v>
+      </c>
+      <c r="BC219">
+        <v>10</v>
+      </c>
+      <c r="BD219">
+        <v>1.64</v>
+      </c>
+      <c r="BE219">
+        <v>6.25</v>
+      </c>
+      <c r="BF219">
+        <v>2.88</v>
+      </c>
+      <c r="BG219">
+        <v>1.37</v>
+      </c>
+      <c r="BH219">
+        <v>2.58</v>
+      </c>
+      <c r="BI219">
+        <v>1.72</v>
+      </c>
+      <c r="BJ219">
+        <v>1.95</v>
+      </c>
+      <c r="BK219">
+        <v>2.16</v>
+      </c>
+      <c r="BL219">
+        <v>1.53</v>
+      </c>
+      <c r="BM219">
+        <v>2.94</v>
+      </c>
+      <c r="BN219">
         <v>1.28</v>
-      </c>
-      <c r="AR219">
-        <v>1.65</v>
-      </c>
-      <c r="AS219">
-        <v>1.28</v>
-      </c>
-      <c r="AT219">
-        <v>2.93</v>
-      </c>
-      <c r="AU219">
-        <v>5</v>
-      </c>
-      <c r="AV219">
-        <v>4</v>
-      </c>
-      <c r="AW219">
-        <v>5</v>
-      </c>
-      <c r="AX219">
-        <v>4</v>
-      </c>
-      <c r="AY219">
-        <v>10</v>
-      </c>
-      <c r="AZ219">
-        <v>8</v>
-      </c>
-      <c r="BA219">
-        <v>3</v>
-      </c>
-      <c r="BB219">
-        <v>1</v>
-      </c>
-      <c r="BC219">
-        <v>4</v>
-      </c>
-      <c r="BD219">
-        <v>1.42</v>
-      </c>
-      <c r="BE219">
-        <v>6.75</v>
-      </c>
-      <c r="BF219">
-        <v>3.76</v>
-      </c>
-      <c r="BG219">
-        <v>1.43</v>
-      </c>
-      <c r="BH219">
-        <v>2.39</v>
-      </c>
-      <c r="BI219">
-        <v>1.82</v>
-      </c>
-      <c r="BJ219">
-        <v>1.84</v>
-      </c>
-      <c r="BK219">
-        <v>2.31</v>
-      </c>
-      <c r="BL219">
-        <v>1.46</v>
-      </c>
-      <c r="BM219">
-        <v>3.14</v>
-      </c>
-      <c r="BN219">
-        <v>1.25</v>
       </c>
       <c r="BO219">
         <v>0</v>
@@ -46526,7 +46526,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>7332575</v>
+        <v>7332576</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -46541,10 +46541,10 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H220" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -46568,16 +46568,16 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="Q220">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="R220">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S220">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T220">
         <v>1.36</v>
@@ -46586,10 +46586,10 @@
         <v>3</v>
       </c>
       <c r="V220">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W220">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X220">
         <v>7</v>
@@ -46598,133 +46598,133 @@
         <v>1.1</v>
       </c>
       <c r="Z220">
-        <v>2.13</v>
+        <v>3.85</v>
       </c>
       <c r="AA220">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AB220">
-        <v>3.2</v>
+        <v>1.94</v>
       </c>
       <c r="AC220">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD220">
+        <v>8.5</v>
+      </c>
+      <c r="AE220">
+        <v>1.28</v>
+      </c>
+      <c r="AF220">
+        <v>3.45</v>
+      </c>
+      <c r="AG220">
+        <v>1.87</v>
+      </c>
+      <c r="AH220">
+        <v>1.94</v>
+      </c>
+      <c r="AI220">
+        <v>1.73</v>
+      </c>
+      <c r="AJ220">
+        <v>2</v>
+      </c>
+      <c r="AK220">
+        <v>1.85</v>
+      </c>
+      <c r="AL220">
+        <v>1.25</v>
+      </c>
+      <c r="AM220">
+        <v>1.2</v>
+      </c>
+      <c r="AN220">
+        <v>0.75</v>
+      </c>
+      <c r="AO220">
+        <v>1.38</v>
+      </c>
+      <c r="AP220">
+        <v>0.72</v>
+      </c>
+      <c r="AQ220">
+        <v>1.28</v>
+      </c>
+      <c r="AR220">
+        <v>1.32</v>
+      </c>
+      <c r="AS220">
+        <v>1.41</v>
+      </c>
+      <c r="AT220">
+        <v>2.73</v>
+      </c>
+      <c r="AU220">
+        <v>5</v>
+      </c>
+      <c r="AV220">
+        <v>4</v>
+      </c>
+      <c r="AW220">
+        <v>5</v>
+      </c>
+      <c r="AX220">
+        <v>8</v>
+      </c>
+      <c r="AY220">
+        <v>10</v>
+      </c>
+      <c r="AZ220">
+        <v>12</v>
+      </c>
+      <c r="BA220">
         <v>9</v>
-      </c>
-      <c r="AE220">
-        <v>1.25</v>
-      </c>
-      <c r="AF220">
-        <v>3.7</v>
-      </c>
-      <c r="AG220">
-        <v>1.82</v>
-      </c>
-      <c r="AH220">
-        <v>2</v>
-      </c>
-      <c r="AI220">
-        <v>1.67</v>
-      </c>
-      <c r="AJ220">
-        <v>2.1</v>
-      </c>
-      <c r="AK220">
-        <v>1.33</v>
-      </c>
-      <c r="AL220">
-        <v>1.22</v>
-      </c>
-      <c r="AM220">
-        <v>1.7</v>
-      </c>
-      <c r="AN220">
-        <v>2</v>
-      </c>
-      <c r="AO220">
-        <v>1.75</v>
-      </c>
-      <c r="AP220">
-        <v>1.89</v>
-      </c>
-      <c r="AQ220">
-        <v>1.78</v>
-      </c>
-      <c r="AR220">
-        <v>1.76</v>
-      </c>
-      <c r="AS220">
-        <v>1.46</v>
-      </c>
-      <c r="AT220">
-        <v>3.22</v>
-      </c>
-      <c r="AU220">
-        <v>6</v>
-      </c>
-      <c r="AV220">
-        <v>0</v>
-      </c>
-      <c r="AW220">
-        <v>10</v>
-      </c>
-      <c r="AX220">
-        <v>3</v>
-      </c>
-      <c r="AY220">
-        <v>16</v>
-      </c>
-      <c r="AZ220">
-        <v>3</v>
-      </c>
-      <c r="BA220">
-        <v>7</v>
       </c>
       <c r="BB220">
         <v>3</v>
       </c>
       <c r="BC220">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD220">
-        <v>1.64</v>
+        <v>2.88</v>
       </c>
       <c r="BE220">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF220">
+        <v>1.63</v>
+      </c>
+      <c r="BG220">
+        <v>1.3</v>
+      </c>
+      <c r="BH220">
         <v>2.88</v>
       </c>
-      <c r="BG220">
-        <v>1.37</v>
-      </c>
-      <c r="BH220">
-        <v>2.58</v>
-      </c>
       <c r="BI220">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="BJ220">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BK220">
-        <v>2.16</v>
+        <v>2.01</v>
       </c>
       <c r="BL220">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="BM220">
-        <v>2.94</v>
+        <v>2.61</v>
       </c>
       <c r="BN220">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BO220">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="BP220">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="221" spans="1:68">
@@ -46732,7 +46732,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>7332577</v>
+        <v>7332579</v>
       </c>
       <c r="C221" t="s">
         <v>68</v>
@@ -46744,52 +46744,52 @@
         <v>45595.3125</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H221" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I221">
         <v>0</v>
       </c>
       <c r="J221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M221">
         <v>1</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O221" t="s">
         <v>222</v>
       </c>
       <c r="P221" t="s">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="Q221">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="R221">
         <v>2.2</v>
       </c>
       <c r="S221">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T221">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U221">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V221">
         <v>2.75</v>
@@ -46798,19 +46798,19 @@
         <v>1.4</v>
       </c>
       <c r="X221">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y221">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z221">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="AA221">
         <v>3.1</v>
       </c>
       <c r="AB221">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AC221">
         <v>1.05</v>
@@ -46837,94 +46837,94 @@
         <v>2</v>
       </c>
       <c r="AK221">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="AL221">
         <v>1.22</v>
       </c>
       <c r="AM221">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AN221">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO221">
-        <v>1.56</v>
+        <v>0.88</v>
       </c>
       <c r="AP221">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AQ221">
-        <v>1.56</v>
+        <v>0.89</v>
       </c>
       <c r="AR221">
-        <v>1.78</v>
+        <v>1.13</v>
       </c>
       <c r="AS221">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="AT221">
-        <v>3.08</v>
+        <v>2.65</v>
       </c>
       <c r="AU221">
+        <v>3</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>4</v>
+      </c>
+      <c r="AX221">
+        <v>5</v>
+      </c>
+      <c r="AY221">
+        <v>7</v>
+      </c>
+      <c r="AZ221">
         <v>9</v>
       </c>
-      <c r="AV221">
-        <v>8</v>
-      </c>
-      <c r="AW221">
-        <v>11</v>
-      </c>
-      <c r="AX221">
-        <v>7</v>
-      </c>
-      <c r="AY221">
-        <v>20</v>
-      </c>
-      <c r="AZ221">
-        <v>15</v>
-      </c>
       <c r="BA221">
+        <v>2</v>
+      </c>
+      <c r="BB221">
+        <v>3</v>
+      </c>
+      <c r="BC221">
         <v>5</v>
       </c>
-      <c r="BB221">
-        <v>8</v>
-      </c>
-      <c r="BC221">
-        <v>13</v>
-      </c>
       <c r="BD221">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="BE221">
         <v>7.5</v>
       </c>
       <c r="BF221">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="BG221">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="BH221">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="BI221">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="BJ221">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="BK221">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="BL221">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="BM221">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="BN221">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BO221">
         <v>0</v>
@@ -47144,7 +47144,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>7332579</v>
+        <v>7332577</v>
       </c>
       <c r="C223" t="s">
         <v>68</v>
@@ -47156,52 +47156,52 @@
         <v>45595.3125</v>
       </c>
       <c r="F223">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H223" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I223">
         <v>0</v>
       </c>
       <c r="J223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M223">
         <v>1</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O223" t="s">
         <v>224</v>
       </c>
       <c r="P223" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="Q223">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R223">
         <v>2.2</v>
       </c>
       <c r="S223">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T223">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U223">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V223">
         <v>2.75</v>
@@ -47210,19 +47210,19 @@
         <v>1.4</v>
       </c>
       <c r="X223">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y223">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
-        <v>3.1</v>
+        <v>2.02</v>
       </c>
       <c r="AA223">
         <v>3.1</v>
       </c>
       <c r="AB223">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="AC223">
         <v>1.05</v>
@@ -47249,94 +47249,94 @@
         <v>2</v>
       </c>
       <c r="AK223">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="AL223">
         <v>1.22</v>
       </c>
       <c r="AM223">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AN223">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO223">
-        <v>0.88</v>
+        <v>1.56</v>
       </c>
       <c r="AP223">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="AQ223">
-        <v>0.89</v>
+        <v>1.56</v>
       </c>
       <c r="AR223">
-        <v>1.13</v>
+        <v>1.78</v>
       </c>
       <c r="AS223">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="AT223">
-        <v>2.65</v>
+        <v>3.08</v>
       </c>
       <c r="AU223">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV223">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW223">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX223">
+        <v>7</v>
+      </c>
+      <c r="AY223">
+        <v>20</v>
+      </c>
+      <c r="AZ223">
+        <v>15</v>
+      </c>
+      <c r="BA223">
         <v>5</v>
       </c>
-      <c r="AY223">
-        <v>7</v>
-      </c>
-      <c r="AZ223">
-        <v>9</v>
-      </c>
-      <c r="BA223">
-        <v>2</v>
-      </c>
       <c r="BB223">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC223">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD223">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="BE223">
         <v>7.5</v>
       </c>
       <c r="BF223">
-        <v>1.85</v>
+        <v>2.42</v>
       </c>
       <c r="BG223">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="BH223">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="BI223">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="BJ223">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="BK223">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="BL223">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="BM223">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="BN223">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BO223">
         <v>0</v>
@@ -48586,7 +48586,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7332590</v>
+        <v>7332586</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48601,151 +48601,151 @@
         <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H230" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
         <v>3</v>
       </c>
-      <c r="K230">
-        <v>3</v>
-      </c>
-      <c r="L230">
-        <v>0</v>
-      </c>
       <c r="M230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N230">
         <v>4</v>
       </c>
       <c r="O230" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="P230" t="s">
-        <v>339</v>
+        <v>97</v>
       </c>
       <c r="Q230">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="R230">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S230">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="T230">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="U230">
-        <v>3.45</v>
+        <v>2.89</v>
       </c>
       <c r="V230">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="W230">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="X230">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Y230">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z230">
+        <v>1.83</v>
+      </c>
+      <c r="AA230">
+        <v>3.4</v>
+      </c>
+      <c r="AB230">
+        <v>3.6</v>
+      </c>
+      <c r="AC230">
+        <v>1.03</v>
+      </c>
+      <c r="AD230">
+        <v>9</v>
+      </c>
+      <c r="AE230">
+        <v>1.29</v>
+      </c>
+      <c r="AF230">
+        <v>3.3</v>
+      </c>
+      <c r="AG230">
+        <v>1.95</v>
+      </c>
+      <c r="AH230">
+        <v>1.75</v>
+      </c>
+      <c r="AI230">
         <v>1.73</v>
       </c>
-      <c r="AA230">
-        <v>3.75</v>
-      </c>
-      <c r="AB230">
-        <v>3.75</v>
-      </c>
-      <c r="AC230">
-        <v>1.01</v>
-      </c>
-      <c r="AD230">
-        <v>11</v>
-      </c>
-      <c r="AE230">
-        <v>1.14</v>
-      </c>
-      <c r="AF230">
-        <v>4.8</v>
-      </c>
-      <c r="AG230">
-        <v>1.6</v>
-      </c>
-      <c r="AH230">
-        <v>2.2</v>
-      </c>
-      <c r="AI230">
-        <v>1.57</v>
-      </c>
       <c r="AJ230">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK230">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AL230">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM230">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AN230">
-        <v>1.59</v>
+        <v>0.88</v>
       </c>
       <c r="AO230">
-        <v>1.71</v>
+        <v>1.35</v>
       </c>
       <c r="AP230">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ230">
-        <v>1.78</v>
+        <v>1.28</v>
       </c>
       <c r="AR230">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AS230">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AT230">
-        <v>2.9</v>
+        <v>3.06</v>
       </c>
       <c r="AU230">
         <v>4</v>
       </c>
       <c r="AV230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW230">
         <v>6</v>
       </c>
       <c r="AX230">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY230">
         <v>10</v>
       </c>
       <c r="AZ230">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA230">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC230">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD230">
         <v>0</v>
@@ -48763,13 +48763,13 @@
         <v>0</v>
       </c>
       <c r="BI230">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="BJ230">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="BK230">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="BL230">
         <v>1.63</v>
@@ -48792,7 +48792,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>7332589</v>
+        <v>7332587</v>
       </c>
       <c r="C231" t="s">
         <v>68</v>
@@ -48804,19 +48804,19 @@
         <v>45605.08333333334</v>
       </c>
       <c r="F231">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H231" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231">
         <v>1</v>
@@ -48825,134 +48825,134 @@
         <v>1</v>
       </c>
       <c r="M231">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O231" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>340</v>
+        <v>88</v>
       </c>
       <c r="Q231">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="R231">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S231">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="T231">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="U231">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="V231">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="W231">
+        <v>1.4</v>
+      </c>
+      <c r="X231">
+        <v>6.2</v>
+      </c>
+      <c r="Y231">
+        <v>1.09</v>
+      </c>
+      <c r="Z231">
+        <v>1.75</v>
+      </c>
+      <c r="AA231">
+        <v>3.45</v>
+      </c>
+      <c r="AB231">
+        <v>3.85</v>
+      </c>
+      <c r="AC231">
+        <v>1.03</v>
+      </c>
+      <c r="AD231">
+        <v>9</v>
+      </c>
+      <c r="AE231">
+        <v>1.25</v>
+      </c>
+      <c r="AF231">
+        <v>3.6</v>
+      </c>
+      <c r="AG231">
+        <v>1.85</v>
+      </c>
+      <c r="AH231">
+        <v>1.85</v>
+      </c>
+      <c r="AI231">
+        <v>1.73</v>
+      </c>
+      <c r="AJ231">
+        <v>2</v>
+      </c>
+      <c r="AK231">
+        <v>1.21</v>
+      </c>
+      <c r="AL231">
+        <v>1.25</v>
+      </c>
+      <c r="AM231">
+        <v>1.95</v>
+      </c>
+      <c r="AN231">
+        <v>1.41</v>
+      </c>
+      <c r="AO231">
+        <v>1.76</v>
+      </c>
+      <c r="AP231">
+        <v>1.5</v>
+      </c>
+      <c r="AQ231">
+        <v>1.67</v>
+      </c>
+      <c r="AR231">
+        <v>1.3</v>
+      </c>
+      <c r="AS231">
         <v>1.32</v>
       </c>
-      <c r="X231">
-        <v>8</v>
-      </c>
-      <c r="Y231">
-        <v>1.05</v>
-      </c>
-      <c r="Z231">
-        <v>3.8</v>
-      </c>
-      <c r="AA231">
-        <v>3.43</v>
-      </c>
-      <c r="AB231">
-        <v>2</v>
-      </c>
-      <c r="AC231">
-        <v>1.05</v>
-      </c>
-      <c r="AD231">
-        <v>8</v>
-      </c>
-      <c r="AE231">
-        <v>1.33</v>
-      </c>
-      <c r="AF231">
+      <c r="AT231">
+        <v>2.62</v>
+      </c>
+      <c r="AU231">
         <v>3</v>
-      </c>
-      <c r="AG231">
-        <v>2.2</v>
-      </c>
-      <c r="AH231">
-        <v>1.6</v>
-      </c>
-      <c r="AI231">
-        <v>1.91</v>
-      </c>
-      <c r="AJ231">
-        <v>1.8</v>
-      </c>
-      <c r="AK231">
-        <v>1.74</v>
-      </c>
-      <c r="AL231">
-        <v>1.3</v>
-      </c>
-      <c r="AM231">
-        <v>1.25</v>
-      </c>
-      <c r="AN231">
-        <v>1</v>
-      </c>
-      <c r="AO231">
-        <v>1.47</v>
-      </c>
-      <c r="AP231">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ231">
-        <v>1.56</v>
-      </c>
-      <c r="AR231">
-        <v>1.27</v>
-      </c>
-      <c r="AS231">
-        <v>1.34</v>
-      </c>
-      <c r="AT231">
-        <v>2.61</v>
-      </c>
-      <c r="AU231">
-        <v>4</v>
       </c>
       <c r="AV231">
         <v>5</v>
       </c>
       <c r="AW231">
+        <v>9</v>
+      </c>
+      <c r="AX231">
+        <v>10</v>
+      </c>
+      <c r="AY231">
+        <v>12</v>
+      </c>
+      <c r="AZ231">
+        <v>15</v>
+      </c>
+      <c r="BA231">
+        <v>4</v>
+      </c>
+      <c r="BB231">
         <v>6</v>
       </c>
-      <c r="AX231">
-        <v>4</v>
-      </c>
-      <c r="AY231">
+      <c r="BC231">
         <v>10</v>
       </c>
-      <c r="AZ231">
-        <v>9</v>
-      </c>
-      <c r="BA231">
-        <v>5</v>
-      </c>
-      <c r="BB231">
-        <v>3</v>
-      </c>
-      <c r="BC231">
-        <v>8</v>
-      </c>
       <c r="BD231">
         <v>0</v>
       </c>
@@ -48963,22 +48963,22 @@
         <v>0</v>
       </c>
       <c r="BG231">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="BH231">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="BI231">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="BJ231">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="BK231">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BL231">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BM231">
         <v>0</v>
@@ -48998,7 +48998,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7332591</v>
+        <v>7332588</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -49013,151 +49013,151 @@
         <v>39</v>
       </c>
       <c r="G232" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H232" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O232" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P232" t="s">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="Q232">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="R232">
+        <v>2.2</v>
+      </c>
+      <c r="S232">
+        <v>4.5</v>
+      </c>
+      <c r="T232">
+        <v>1.33</v>
+      </c>
+      <c r="U232">
+        <v>3.21</v>
+      </c>
+      <c r="V232">
+        <v>2.66</v>
+      </c>
+      <c r="W232">
+        <v>1.45</v>
+      </c>
+      <c r="X232">
+        <v>5.7</v>
+      </c>
+      <c r="Y232">
+        <v>1.1</v>
+      </c>
+      <c r="Z232">
+        <v>1.7</v>
+      </c>
+      <c r="AA232">
+        <v>3.65</v>
+      </c>
+      <c r="AB232">
+        <v>3.9</v>
+      </c>
+      <c r="AC232">
+        <v>1.01</v>
+      </c>
+      <c r="AD232">
+        <v>11</v>
+      </c>
+      <c r="AE232">
+        <v>1.2</v>
+      </c>
+      <c r="AF232">
+        <v>4</v>
+      </c>
+      <c r="AG232">
+        <v>1.75</v>
+      </c>
+      <c r="AH232">
+        <v>1.95</v>
+      </c>
+      <c r="AI232">
+        <v>1.67</v>
+      </c>
+      <c r="AJ232">
         <v>2.1</v>
       </c>
-      <c r="S232">
-        <v>3</v>
-      </c>
-      <c r="T232">
-        <v>1.36</v>
-      </c>
-      <c r="U232">
-        <v>3.11</v>
-      </c>
-      <c r="V232">
-        <v>2.8</v>
-      </c>
-      <c r="W232">
-        <v>1.43</v>
-      </c>
-      <c r="X232">
-        <v>6.1</v>
-      </c>
-      <c r="Y232">
-        <v>1.09</v>
-      </c>
-      <c r="Z232">
-        <v>2.55</v>
-      </c>
-      <c r="AA232">
-        <v>3.2</v>
-      </c>
-      <c r="AB232">
-        <v>2.4</v>
-      </c>
-      <c r="AC232">
-        <v>1.03</v>
-      </c>
-      <c r="AD232">
-        <v>9</v>
-      </c>
-      <c r="AE232">
-        <v>1.22</v>
-      </c>
-      <c r="AF232">
-        <v>3.8</v>
-      </c>
-      <c r="AG232">
-        <v>1.9</v>
-      </c>
-      <c r="AH232">
-        <v>1.8</v>
-      </c>
-      <c r="AI232">
-        <v>1.62</v>
-      </c>
-      <c r="AJ232">
-        <v>2.2</v>
-      </c>
       <c r="AK232">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AL232">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AM232">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="AN232">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="AO232">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="AP232">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="AQ232">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="AR232">
-        <v>1.12</v>
+        <v>1.76</v>
       </c>
       <c r="AS232">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="AT232">
-        <v>2.34</v>
+        <v>3.25</v>
       </c>
       <c r="AU232">
         <v>3</v>
       </c>
       <c r="AV232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW232">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX232">
+        <v>5</v>
+      </c>
+      <c r="AY232">
+        <v>11</v>
+      </c>
+      <c r="AZ232">
+        <v>8</v>
+      </c>
+      <c r="BA232">
         <v>3</v>
       </c>
-      <c r="AY232">
-        <v>10</v>
-      </c>
-      <c r="AZ232">
+      <c r="BB232">
         <v>5</v>
       </c>
-      <c r="BA232">
-        <v>5</v>
-      </c>
-      <c r="BB232">
-        <v>2</v>
-      </c>
       <c r="BC232">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD232">
         <v>0</v>
@@ -49169,22 +49169,22 @@
         <v>0</v>
       </c>
       <c r="BG232">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="BH232">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BI232">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="BJ232">
-        <v>1.84</v>
+        <v>2.21</v>
       </c>
       <c r="BK232">
-        <v>2.52</v>
+        <v>2.07</v>
       </c>
       <c r="BL232">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="BM232">
         <v>0</v>
@@ -49204,7 +49204,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7332587</v>
+        <v>7332589</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49216,19 +49216,19 @@
         <v>45605.08333333334</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G233" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H233" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233">
         <v>1</v>
@@ -49237,133 +49237,133 @@
         <v>1</v>
       </c>
       <c r="M233">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O233" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="Q233">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="R233">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S233">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="T233">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="U233">
+        <v>2.67</v>
+      </c>
+      <c r="V233">
+        <v>3.27</v>
+      </c>
+      <c r="W233">
+        <v>1.32</v>
+      </c>
+      <c r="X233">
+        <v>8</v>
+      </c>
+      <c r="Y233">
+        <v>1.05</v>
+      </c>
+      <c r="Z233">
+        <v>3.8</v>
+      </c>
+      <c r="AA233">
+        <v>3.43</v>
+      </c>
+      <c r="AB233">
+        <v>2</v>
+      </c>
+      <c r="AC233">
+        <v>1.05</v>
+      </c>
+      <c r="AD233">
+        <v>8</v>
+      </c>
+      <c r="AE233">
+        <v>1.33</v>
+      </c>
+      <c r="AF233">
         <v>3</v>
       </c>
-      <c r="V233">
-        <v>2.86</v>
-      </c>
-      <c r="W233">
-        <v>1.4</v>
-      </c>
-      <c r="X233">
-        <v>6.2</v>
-      </c>
-      <c r="Y233">
-        <v>1.09</v>
-      </c>
-      <c r="Z233">
-        <v>1.75</v>
-      </c>
-      <c r="AA233">
-        <v>3.45</v>
-      </c>
-      <c r="AB233">
-        <v>3.85</v>
-      </c>
-      <c r="AC233">
-        <v>1.03</v>
-      </c>
-      <c r="AD233">
-        <v>9</v>
-      </c>
-      <c r="AE233">
+      <c r="AG233">
+        <v>2.2</v>
+      </c>
+      <c r="AH233">
+        <v>1.6</v>
+      </c>
+      <c r="AI233">
+        <v>1.91</v>
+      </c>
+      <c r="AJ233">
+        <v>1.8</v>
+      </c>
+      <c r="AK233">
+        <v>1.74</v>
+      </c>
+      <c r="AL233">
+        <v>1.3</v>
+      </c>
+      <c r="AM233">
         <v>1.25</v>
       </c>
-      <c r="AF233">
-        <v>3.6</v>
-      </c>
-      <c r="AG233">
-        <v>1.85</v>
-      </c>
-      <c r="AH233">
-        <v>1.85</v>
-      </c>
-      <c r="AI233">
-        <v>1.73</v>
-      </c>
-      <c r="AJ233">
-        <v>2</v>
-      </c>
-      <c r="AK233">
-        <v>1.21</v>
-      </c>
-      <c r="AL233">
-        <v>1.25</v>
-      </c>
-      <c r="AM233">
-        <v>1.95</v>
-      </c>
       <c r="AN233">
-        <v>1.41</v>
+        <v>1</v>
       </c>
       <c r="AO233">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="AP233">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ233">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR233">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS233">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT233">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="AU233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV233">
         <v>5</v>
       </c>
       <c r="AW233">
+        <v>6</v>
+      </c>
+      <c r="AX233">
+        <v>4</v>
+      </c>
+      <c r="AY233">
+        <v>10</v>
+      </c>
+      <c r="AZ233">
         <v>9</v>
       </c>
-      <c r="AX233">
-        <v>10</v>
-      </c>
-      <c r="AY233">
-        <v>12</v>
-      </c>
-      <c r="AZ233">
-        <v>15</v>
-      </c>
       <c r="BA233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC233">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD233">
         <v>0</v>
@@ -49375,22 +49375,22 @@
         <v>0</v>
       </c>
       <c r="BG233">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="BH233">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="BI233">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="BJ233">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="BK233">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="BL233">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BM233">
         <v>0</v>
@@ -49410,7 +49410,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7332586</v>
+        <v>7332590</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49425,151 +49425,151 @@
         <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H234" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N234">
         <v>4</v>
       </c>
       <c r="O234" t="s">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="P234" t="s">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="Q234">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R234">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S234">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="T234">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="U234">
-        <v>2.89</v>
+        <v>3.45</v>
       </c>
       <c r="V234">
-        <v>3.05</v>
+        <v>2.45</v>
       </c>
       <c r="W234">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="X234">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y234">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z234">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA234">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB234">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AC234">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD234">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE234">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AF234">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="AG234">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AH234">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AI234">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AJ234">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AK234">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AL234">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM234">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AN234">
-        <v>0.88</v>
+        <v>1.59</v>
       </c>
       <c r="AO234">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="AP234">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ234">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="AR234">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AS234">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT234">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="AU234">
         <v>4</v>
       </c>
       <c r="AV234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW234">
         <v>6</v>
       </c>
       <c r="AX234">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY234">
         <v>10</v>
       </c>
       <c r="AZ234">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA234">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC234">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD234">
         <v>0</v>
@@ -49587,13 +49587,13 @@
         <v>0</v>
       </c>
       <c r="BI234">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BJ234">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="BK234">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="BL234">
         <v>1.63</v>
@@ -49616,7 +49616,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>7332588</v>
+        <v>7332591</v>
       </c>
       <c r="C235" t="s">
         <v>68</v>
@@ -49631,151 +49631,151 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H235" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O235" t="s">
         <v>233</v>
       </c>
       <c r="P235" t="s">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c r="Q235">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="R235">
+        <v>2.1</v>
+      </c>
+      <c r="S235">
+        <v>3</v>
+      </c>
+      <c r="T235">
+        <v>1.36</v>
+      </c>
+      <c r="U235">
+        <v>3.11</v>
+      </c>
+      <c r="V235">
+        <v>2.8</v>
+      </c>
+      <c r="W235">
+        <v>1.43</v>
+      </c>
+      <c r="X235">
+        <v>6.1</v>
+      </c>
+      <c r="Y235">
+        <v>1.09</v>
+      </c>
+      <c r="Z235">
+        <v>2.55</v>
+      </c>
+      <c r="AA235">
+        <v>3.2</v>
+      </c>
+      <c r="AB235">
+        <v>2.4</v>
+      </c>
+      <c r="AC235">
+        <v>1.03</v>
+      </c>
+      <c r="AD235">
+        <v>9</v>
+      </c>
+      <c r="AE235">
+        <v>1.22</v>
+      </c>
+      <c r="AF235">
+        <v>3.8</v>
+      </c>
+      <c r="AG235">
+        <v>1.9</v>
+      </c>
+      <c r="AH235">
+        <v>1.8</v>
+      </c>
+      <c r="AI235">
+        <v>1.62</v>
+      </c>
+      <c r="AJ235">
         <v>2.2</v>
       </c>
-      <c r="S235">
-        <v>4.5</v>
-      </c>
-      <c r="T235">
-        <v>1.33</v>
-      </c>
-      <c r="U235">
-        <v>3.21</v>
-      </c>
-      <c r="V235">
-        <v>2.66</v>
-      </c>
-      <c r="W235">
-        <v>1.45</v>
-      </c>
-      <c r="X235">
-        <v>5.7</v>
-      </c>
-      <c r="Y235">
-        <v>1.1</v>
-      </c>
-      <c r="Z235">
-        <v>1.7</v>
-      </c>
-      <c r="AA235">
-        <v>3.65</v>
-      </c>
-      <c r="AB235">
-        <v>3.9</v>
-      </c>
-      <c r="AC235">
-        <v>1.01</v>
-      </c>
-      <c r="AD235">
-        <v>11</v>
-      </c>
-      <c r="AE235">
-        <v>1.2</v>
-      </c>
-      <c r="AF235">
-        <v>4</v>
-      </c>
-      <c r="AG235">
-        <v>1.75</v>
-      </c>
-      <c r="AH235">
-        <v>1.95</v>
-      </c>
-      <c r="AI235">
-        <v>1.67</v>
-      </c>
-      <c r="AJ235">
-        <v>2.1</v>
-      </c>
       <c r="AK235">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="AL235">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AM235">
-        <v>2.08</v>
+        <v>1.4</v>
       </c>
       <c r="AN235">
-        <v>1.94</v>
+        <v>1.24</v>
       </c>
       <c r="AO235">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="AP235">
-        <v>1.89</v>
+        <v>1.22</v>
       </c>
       <c r="AQ235">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="AR235">
-        <v>1.76</v>
+        <v>1.12</v>
       </c>
       <c r="AS235">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="AT235">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="AU235">
         <v>3</v>
       </c>
       <c r="AV235">
+        <v>2</v>
+      </c>
+      <c r="AW235">
+        <v>7</v>
+      </c>
+      <c r="AX235">
         <v>3</v>
       </c>
-      <c r="AW235">
-        <v>8</v>
-      </c>
-      <c r="AX235">
+      <c r="AY235">
+        <v>10</v>
+      </c>
+      <c r="AZ235">
         <v>5</v>
       </c>
-      <c r="AY235">
-        <v>11</v>
-      </c>
-      <c r="AZ235">
-        <v>8</v>
-      </c>
       <c r="BA235">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC235">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD235">
         <v>0</v>
@@ -49787,22 +49787,22 @@
         <v>0</v>
       </c>
       <c r="BG235">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BH235">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BI235">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="BJ235">
-        <v>2.21</v>
+        <v>1.84</v>
       </c>
       <c r="BK235">
-        <v>2.07</v>
+        <v>2.52</v>
       </c>
       <c r="BL235">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="BM235">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1401,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2977,7 +2977,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -6270,7 +6270,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6479,7 +6479,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -8951,7 +8951,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ37">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -9772,7 +9772,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -10393,7 +10393,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ44">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -12450,7 +12450,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ54">
         <v>1.61</v>
@@ -13480,7 +13480,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59">
         <v>0.89</v>
@@ -15540,7 +15540,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ69">
         <v>0.72</v>
@@ -15955,7 +15955,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ71">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR71">
         <v>1.07</v>
@@ -17191,7 +17191,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ77">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17806,7 +17806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ80">
         <v>1.28</v>
@@ -20075,7 +20075,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ91">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -21720,7 +21720,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ99">
         <v>1.28</v>
@@ -22341,7 +22341,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR102">
         <v>1.71</v>
@@ -23371,7 +23371,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -24192,7 +24192,7 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ111">
         <v>1.44</v>
@@ -27694,7 +27694,7 @@
         <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ128">
         <v>1.56</v>
@@ -28315,7 +28315,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ131">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR131">
         <v>1.87</v>
@@ -29136,10 +29136,10 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ135">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -31814,7 +31814,7 @@
         <v>1.73</v>
       </c>
       <c r="AP148">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ148">
         <v>1.72</v>
@@ -32847,7 +32847,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR153">
         <v>1.57</v>
@@ -34701,7 +34701,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ162">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -35110,7 +35110,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ164">
         <v>0.89</v>
@@ -38406,10 +38406,10 @@
         <v>2</v>
       </c>
       <c r="AP180">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ180">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR180">
         <v>1.63</v>
@@ -41087,7 +41087,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ193">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR193">
         <v>1.83</v>
@@ -41705,7 +41705,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ196">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR196">
         <v>1.12</v>
@@ -42114,7 +42114,7 @@
         <v>1.57</v>
       </c>
       <c r="AP198">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ198">
         <v>1.28</v>
@@ -44174,7 +44174,7 @@
         <v>0.88</v>
       </c>
       <c r="AP208">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ208">
         <v>0.83</v>
@@ -44795,7 +44795,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ211">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR211">
         <v>1.75</v>
@@ -44998,7 +44998,7 @@
         <v>1.69</v>
       </c>
       <c r="AP212">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ212">
         <v>1.67</v>
@@ -47679,7 +47679,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ225">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR225">
         <v>1.32</v>
@@ -48088,7 +48088,7 @@
         <v>1.35</v>
       </c>
       <c r="AP227">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ227">
         <v>1.28</v>
@@ -49815,6 +49815,212 @@
       </c>
       <c r="BP235">
         <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7743570</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45616.875</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>77</v>
+      </c>
+      <c r="H236" t="s">
+        <v>75</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236" t="s">
+        <v>88</v>
+      </c>
+      <c r="P236" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q236">
+        <v>3.25</v>
+      </c>
+      <c r="R236">
+        <v>2.15</v>
+      </c>
+      <c r="S236">
+        <v>2.9</v>
+      </c>
+      <c r="T236">
+        <v>1.33</v>
+      </c>
+      <c r="U236">
+        <v>3</v>
+      </c>
+      <c r="V236">
+        <v>2.5</v>
+      </c>
+      <c r="W236">
+        <v>1.48</v>
+      </c>
+      <c r="X236">
+        <v>5.4</v>
+      </c>
+      <c r="Y236">
+        <v>1.12</v>
+      </c>
+      <c r="Z236">
+        <v>2.8</v>
+      </c>
+      <c r="AA236">
+        <v>3.65</v>
+      </c>
+      <c r="AB236">
+        <v>2.4</v>
+      </c>
+      <c r="AC236">
+        <v>1</v>
+      </c>
+      <c r="AD236">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE236">
+        <v>1.22</v>
+      </c>
+      <c r="AF236">
+        <v>4.25</v>
+      </c>
+      <c r="AG236">
+        <v>1.72</v>
+      </c>
+      <c r="AH236">
+        <v>2.13</v>
+      </c>
+      <c r="AI236">
+        <v>1.57</v>
+      </c>
+      <c r="AJ236">
+        <v>2.3</v>
+      </c>
+      <c r="AK236">
+        <v>1.55</v>
+      </c>
+      <c r="AL236">
+        <v>1.25</v>
+      </c>
+      <c r="AM236">
+        <v>1.42</v>
+      </c>
+      <c r="AN236">
+        <v>1.58</v>
+      </c>
+      <c r="AO236">
+        <v>1.56</v>
+      </c>
+      <c r="AP236">
+        <v>1.57</v>
+      </c>
+      <c r="AQ236">
+        <v>1.54</v>
+      </c>
+      <c r="AR236">
+        <v>1.52</v>
+      </c>
+      <c r="AS236">
+        <v>1.61</v>
+      </c>
+      <c r="AT236">
+        <v>3.13</v>
+      </c>
+      <c r="AU236">
+        <v>2</v>
+      </c>
+      <c r="AV236">
+        <v>3</v>
+      </c>
+      <c r="AW236">
+        <v>4</v>
+      </c>
+      <c r="AX236">
+        <v>12</v>
+      </c>
+      <c r="AY236">
+        <v>7</v>
+      </c>
+      <c r="AZ236">
+        <v>18</v>
+      </c>
+      <c r="BA236">
+        <v>0</v>
+      </c>
+      <c r="BB236">
+        <v>4</v>
+      </c>
+      <c r="BC236">
+        <v>4</v>
+      </c>
+      <c r="BD236">
+        <v>2.1</v>
+      </c>
+      <c r="BE236">
+        <v>7.5</v>
+      </c>
+      <c r="BF236">
+        <v>1.95</v>
+      </c>
+      <c r="BG236">
+        <v>1.39</v>
+      </c>
+      <c r="BH236">
+        <v>2.78</v>
+      </c>
+      <c r="BI236">
+        <v>1.82</v>
+      </c>
+      <c r="BJ236">
+        <v>1.98</v>
+      </c>
+      <c r="BK236">
+        <v>2.11</v>
+      </c>
+      <c r="BL236">
+        <v>1.65</v>
+      </c>
+      <c r="BM236">
+        <v>2.78</v>
+      </c>
+      <c r="BN236">
+        <v>1.39</v>
+      </c>
+      <c r="BO236">
+        <v>3.78</v>
+      </c>
+      <c r="BP236">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1401,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP236"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2977,7 +2977,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -6270,7 +6270,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6479,7 +6479,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -8951,7 +8951,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ37">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -9772,7 +9772,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -10393,7 +10393,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ44">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -12450,7 +12450,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ54">
         <v>1.61</v>
@@ -13480,7 +13480,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ59">
         <v>0.89</v>
@@ -15540,7 +15540,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ69">
         <v>0.72</v>
@@ -15955,7 +15955,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ71">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR71">
         <v>1.07</v>
@@ -17191,7 +17191,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ77">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17806,7 +17806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ80">
         <v>1.28</v>
@@ -20075,7 +20075,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ91">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -21720,7 +21720,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ99">
         <v>1.28</v>
@@ -22341,7 +22341,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR102">
         <v>1.71</v>
@@ -23371,7 +23371,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -24192,7 +24192,7 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ111">
         <v>1.44</v>
@@ -27694,7 +27694,7 @@
         <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ128">
         <v>1.56</v>
@@ -28315,7 +28315,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ131">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR131">
         <v>1.87</v>
@@ -29136,10 +29136,10 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ135">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -31814,7 +31814,7 @@
         <v>1.73</v>
       </c>
       <c r="AP148">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ148">
         <v>1.72</v>
@@ -32847,7 +32847,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR153">
         <v>1.57</v>
@@ -34701,7 +34701,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ162">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -35110,7 +35110,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ164">
         <v>0.89</v>
@@ -38406,10 +38406,10 @@
         <v>2</v>
       </c>
       <c r="AP180">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ180">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR180">
         <v>1.63</v>
@@ -41087,7 +41087,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ193">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR193">
         <v>1.83</v>
@@ -41705,7 +41705,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ196">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR196">
         <v>1.12</v>
@@ -42114,7 +42114,7 @@
         <v>1.57</v>
       </c>
       <c r="AP198">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ198">
         <v>1.28</v>
@@ -44174,7 +44174,7 @@
         <v>0.88</v>
       </c>
       <c r="AP208">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ208">
         <v>0.83</v>
@@ -44795,7 +44795,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ211">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR211">
         <v>1.75</v>
@@ -44998,7 +44998,7 @@
         <v>1.69</v>
       </c>
       <c r="AP212">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ212">
         <v>1.67</v>
@@ -47679,7 +47679,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ225">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AR225">
         <v>1.32</v>
@@ -48088,7 +48088,7 @@
         <v>1.35</v>
       </c>
       <c r="AP227">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AQ227">
         <v>1.28</v>
@@ -49815,212 +49815,6 @@
       </c>
       <c r="BP235">
         <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:68">
-      <c r="A236" s="1">
-        <v>235</v>
-      </c>
-      <c r="B236">
-        <v>7743570</v>
-      </c>
-      <c r="C236" t="s">
-        <v>68</v>
-      </c>
-      <c r="D236" t="s">
-        <v>69</v>
-      </c>
-      <c r="E236" s="2">
-        <v>45616.875</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236" t="s">
-        <v>77</v>
-      </c>
-      <c r="H236" t="s">
-        <v>75</v>
-      </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236">
-        <v>0</v>
-      </c>
-      <c r="K236">
-        <v>0</v>
-      </c>
-      <c r="L236">
-        <v>0</v>
-      </c>
-      <c r="M236">
-        <v>0</v>
-      </c>
-      <c r="N236">
-        <v>0</v>
-      </c>
-      <c r="O236" t="s">
-        <v>88</v>
-      </c>
-      <c r="P236" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q236">
-        <v>3.25</v>
-      </c>
-      <c r="R236">
-        <v>2.15</v>
-      </c>
-      <c r="S236">
-        <v>2.9</v>
-      </c>
-      <c r="T236">
-        <v>1.33</v>
-      </c>
-      <c r="U236">
-        <v>3</v>
-      </c>
-      <c r="V236">
-        <v>2.5</v>
-      </c>
-      <c r="W236">
-        <v>1.48</v>
-      </c>
-      <c r="X236">
-        <v>5.4</v>
-      </c>
-      <c r="Y236">
-        <v>1.12</v>
-      </c>
-      <c r="Z236">
-        <v>2.8</v>
-      </c>
-      <c r="AA236">
-        <v>3.65</v>
-      </c>
-      <c r="AB236">
-        <v>2.4</v>
-      </c>
-      <c r="AC236">
-        <v>1</v>
-      </c>
-      <c r="AD236">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE236">
-        <v>1.22</v>
-      </c>
-      <c r="AF236">
-        <v>4.25</v>
-      </c>
-      <c r="AG236">
-        <v>1.72</v>
-      </c>
-      <c r="AH236">
-        <v>2.13</v>
-      </c>
-      <c r="AI236">
-        <v>1.57</v>
-      </c>
-      <c r="AJ236">
-        <v>2.3</v>
-      </c>
-      <c r="AK236">
-        <v>1.55</v>
-      </c>
-      <c r="AL236">
-        <v>1.25</v>
-      </c>
-      <c r="AM236">
-        <v>1.42</v>
-      </c>
-      <c r="AN236">
-        <v>1.58</v>
-      </c>
-      <c r="AO236">
-        <v>1.56</v>
-      </c>
-      <c r="AP236">
-        <v>1.57</v>
-      </c>
-      <c r="AQ236">
-        <v>1.54</v>
-      </c>
-      <c r="AR236">
-        <v>1.52</v>
-      </c>
-      <c r="AS236">
-        <v>1.61</v>
-      </c>
-      <c r="AT236">
-        <v>3.13</v>
-      </c>
-      <c r="AU236">
-        <v>2</v>
-      </c>
-      <c r="AV236">
-        <v>3</v>
-      </c>
-      <c r="AW236">
-        <v>4</v>
-      </c>
-      <c r="AX236">
-        <v>12</v>
-      </c>
-      <c r="AY236">
-        <v>7</v>
-      </c>
-      <c r="AZ236">
-        <v>18</v>
-      </c>
-      <c r="BA236">
-        <v>0</v>
-      </c>
-      <c r="BB236">
-        <v>4</v>
-      </c>
-      <c r="BC236">
-        <v>4</v>
-      </c>
-      <c r="BD236">
-        <v>2.1</v>
-      </c>
-      <c r="BE236">
-        <v>7.5</v>
-      </c>
-      <c r="BF236">
-        <v>1.95</v>
-      </c>
-      <c r="BG236">
-        <v>1.39</v>
-      </c>
-      <c r="BH236">
-        <v>2.78</v>
-      </c>
-      <c r="BI236">
-        <v>1.82</v>
-      </c>
-      <c r="BJ236">
-        <v>1.98</v>
-      </c>
-      <c r="BK236">
-        <v>2.11</v>
-      </c>
-      <c r="BL236">
-        <v>1.65</v>
-      </c>
-      <c r="BM236">
-        <v>2.78</v>
-      </c>
-      <c r="BN236">
-        <v>1.39</v>
-      </c>
-      <c r="BO236">
-        <v>3.78</v>
-      </c>
-      <c r="BP236">
-        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,9 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['77', '81']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -1040,6 +1043,9 @@
   </si>
   <si>
     <t>['11', '30', '33', '78']</t>
+  </si>
+  <si>
+    <t>['49', '76']</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1666,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2072,7 +2078,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2359,7 +2365,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2690,7 +2696,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2896,7 +2902,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2977,7 +2983,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3180,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3514,7 +3520,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3592,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11">
         <v>1.44</v>
@@ -3720,7 +3726,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3926,7 +3932,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4544,7 +4550,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4956,7 +4962,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -5162,7 +5168,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5780,7 +5786,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5858,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ22">
         <v>1.61</v>
@@ -6270,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6479,7 +6485,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6810,7 +6816,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7094,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7222,7 +7228,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7509,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7840,7 +7846,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7921,7 +7927,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -8252,7 +8258,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8870,7 +8876,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8951,7 +8957,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ37">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -9282,7 +9288,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9772,7 +9778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -9900,7 +9906,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -10106,7 +10112,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10312,7 +10318,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10393,7 +10399,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ44">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10518,7 +10524,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10724,7 +10730,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10930,7 +10936,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11423,7 +11429,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11626,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ50">
         <v>1.56</v>
@@ -11754,7 +11760,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11960,7 +11966,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -12166,7 +12172,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12372,7 +12378,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12450,7 +12456,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ54">
         <v>1.61</v>
@@ -12990,7 +12996,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13196,7 +13202,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13402,7 +13408,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13480,7 +13486,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59">
         <v>0.89</v>
@@ -13892,7 +13898,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ61">
         <v>1.28</v>
@@ -14020,7 +14026,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14226,7 +14232,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14432,7 +14438,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14638,7 +14644,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -15050,7 +15056,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15131,7 +15137,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ67">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15540,7 +15546,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ69">
         <v>0.72</v>
@@ -15668,7 +15674,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15955,7 +15961,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ71">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR71">
         <v>1.07</v>
@@ -16080,7 +16086,7 @@
         <v>88</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>4.16</v>
@@ -16698,7 +16704,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16904,7 +16910,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16982,10 +16988,10 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ76">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17191,7 +17197,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ77">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17522,7 +17528,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17806,7 +17812,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ80">
         <v>1.28</v>
@@ -18218,7 +18224,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ82">
         <v>1.28</v>
@@ -18552,7 +18558,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q84">
         <v>2.05</v>
@@ -18964,7 +18970,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19170,7 +19176,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19251,7 +19257,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ87">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR87">
         <v>1.94</v>
@@ -19582,7 +19588,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -20075,7 +20081,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ91">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -20200,7 +20206,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20281,7 +20287,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20406,7 +20412,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20484,7 +20490,7 @@
         <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
         <v>0.89</v>
@@ -21230,7 +21236,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21642,7 +21648,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21720,7 +21726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ99">
         <v>1.28</v>
@@ -21848,7 +21854,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22341,7 +22347,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR102">
         <v>1.71</v>
@@ -23371,7 +23377,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23496,7 +23502,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23702,7 +23708,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -24192,7 +24198,7 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ111">
         <v>1.44</v>
@@ -24320,7 +24326,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24732,7 +24738,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24810,7 +24816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114">
         <v>0.83</v>
@@ -24938,7 +24944,7 @@
         <v>150</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -25144,7 +25150,7 @@
         <v>150</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25350,7 +25356,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25556,7 +25562,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25762,7 +25768,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25968,7 +25974,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26049,7 +26055,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ120">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26380,7 +26386,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26586,7 +26592,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26792,7 +26798,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26998,7 +27004,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27079,7 +27085,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ125">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27410,7 +27416,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27616,7 +27622,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27694,7 +27700,7 @@
         <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ128">
         <v>1.56</v>
@@ -28028,7 +28034,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28234,7 +28240,7 @@
         <v>88</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q131">
         <v>2.98</v>
@@ -28315,7 +28321,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ131">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR131">
         <v>1.87</v>
@@ -28518,7 +28524,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132">
         <v>0.72</v>
@@ -28852,7 +28858,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>2.99</v>
@@ -29058,7 +29064,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>3.08</v>
@@ -29136,10 +29142,10 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ135">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -29470,7 +29476,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29882,7 +29888,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29960,7 +29966,7 @@
         <v>1.8</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139">
         <v>1.67</v>
@@ -30088,7 +30094,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30294,7 +30300,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30500,7 +30506,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30581,7 +30587,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ142">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR142">
         <v>1.6</v>
@@ -30706,7 +30712,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30912,7 +30918,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -31118,7 +31124,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31736,7 +31742,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31814,7 +31820,7 @@
         <v>1.73</v>
       </c>
       <c r="AP148">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ148">
         <v>1.72</v>
@@ -31942,7 +31948,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -32148,7 +32154,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32354,7 +32360,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32766,7 +32772,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32844,10 +32850,10 @@
         <v>2.09</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR153">
         <v>1.57</v>
@@ -32972,7 +32978,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33259,7 +33265,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ155">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR155">
         <v>1.31</v>
@@ -33590,7 +33596,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34208,7 +34214,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34701,7 +34707,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ162">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -34907,7 +34913,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ163">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR163">
         <v>1.89</v>
@@ -35110,7 +35116,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ164">
         <v>0.89</v>
@@ -35444,7 +35450,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35650,7 +35656,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q167">
         <v>3.8</v>
@@ -35934,7 +35940,7 @@
         <v>1.58</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
         <v>1.44</v>
@@ -36062,7 +36068,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36268,7 +36274,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q170">
         <v>4.3</v>
@@ -36474,7 +36480,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37092,7 +37098,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q174">
         <v>2.94</v>
@@ -37173,7 +37179,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR174">
         <v>1.35</v>
@@ -37504,7 +37510,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37710,7 +37716,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q177">
         <v>2.15</v>
@@ -37916,7 +37922,7 @@
         <v>200</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>2.1</v>
@@ -38122,7 +38128,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38328,7 +38334,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38406,10 +38412,10 @@
         <v>2</v>
       </c>
       <c r="AP180">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ180">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR180">
         <v>1.63</v>
@@ -38534,7 +38540,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38821,7 +38827,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ182">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR182">
         <v>1.51</v>
@@ -39564,7 +39570,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -40260,7 +40266,7 @@
         <v>1.79</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ189">
         <v>1.61</v>
@@ -40388,7 +40394,7 @@
         <v>209</v>
       </c>
       <c r="P190" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -41087,7 +41093,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ193">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR193">
         <v>1.83</v>
@@ -41624,7 +41630,7 @@
         <v>88</v>
       </c>
       <c r="P196" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41705,7 +41711,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ196">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR196">
         <v>1.12</v>
@@ -42036,7 +42042,7 @@
         <v>212</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q198">
         <v>2.88</v>
@@ -42114,7 +42120,7 @@
         <v>1.57</v>
       </c>
       <c r="AP198">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ198">
         <v>1.28</v>
@@ -42242,7 +42248,7 @@
         <v>88</v>
       </c>
       <c r="P199" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q199">
         <v>2.5</v>
@@ -42320,7 +42326,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ199">
         <v>1.5</v>
@@ -43353,7 +43359,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ204">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR204">
         <v>1.51</v>
@@ -44174,7 +44180,7 @@
         <v>0.88</v>
       </c>
       <c r="AP208">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ208">
         <v>0.83</v>
@@ -44302,7 +44308,7 @@
         <v>217</v>
       </c>
       <c r="P209" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -44508,7 +44514,7 @@
         <v>88</v>
       </c>
       <c r="P210" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44795,7 +44801,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ211">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR211">
         <v>1.75</v>
@@ -44920,7 +44926,7 @@
         <v>88</v>
       </c>
       <c r="P212" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q212">
         <v>2.24</v>
@@ -44998,7 +45004,7 @@
         <v>1.69</v>
       </c>
       <c r="AP212">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ212">
         <v>1.67</v>
@@ -45126,7 +45132,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q213">
         <v>3.94</v>
@@ -45744,7 +45750,7 @@
         <v>215</v>
       </c>
       <c r="P216" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q216">
         <v>2.75</v>
@@ -45822,7 +45828,7 @@
         <v>1.47</v>
       </c>
       <c r="AP216">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ216">
         <v>1.56</v>
@@ -45950,7 +45956,7 @@
         <v>219</v>
       </c>
       <c r="P217" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46156,7 +46162,7 @@
         <v>88</v>
       </c>
       <c r="P218" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q218">
         <v>2.38</v>
@@ -46443,7 +46449,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ219">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR219">
         <v>1.76</v>
@@ -46568,7 +46574,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q220">
         <v>4.33</v>
@@ -47058,7 +47064,7 @@
         <v>0.75</v>
       </c>
       <c r="AP222">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ222">
         <v>0.72</v>
@@ -47186,7 +47192,7 @@
         <v>224</v>
       </c>
       <c r="P223" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q223">
         <v>2.63</v>
@@ -47598,7 +47604,7 @@
         <v>225</v>
       </c>
       <c r="P225" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47679,7 +47685,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ225">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AR225">
         <v>1.32</v>
@@ -47804,7 +47810,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q226">
         <v>4.33</v>
@@ -48088,7 +48094,7 @@
         <v>1.35</v>
       </c>
       <c r="AP227">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ227">
         <v>1.28</v>
@@ -49040,7 +49046,7 @@
         <v>231</v>
       </c>
       <c r="P232" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q232">
         <v>2.25</v>
@@ -49246,7 +49252,7 @@
         <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q233">
         <v>4.33</v>
@@ -49452,7 +49458,7 @@
         <v>88</v>
       </c>
       <c r="P234" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49530,10 +49536,10 @@
         <v>1.71</v>
       </c>
       <c r="AP234">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ234">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR234">
         <v>1.44</v>
@@ -49815,6 +49821,418 @@
       </c>
       <c r="BP235">
         <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7743570</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45617.29166666666</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>77</v>
+      </c>
+      <c r="H236" t="s">
+        <v>75</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236" t="s">
+        <v>88</v>
+      </c>
+      <c r="P236" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q236">
+        <v>3.25</v>
+      </c>
+      <c r="R236">
+        <v>2.15</v>
+      </c>
+      <c r="S236">
+        <v>2.9</v>
+      </c>
+      <c r="T236">
+        <v>1.33</v>
+      </c>
+      <c r="U236">
+        <v>3</v>
+      </c>
+      <c r="V236">
+        <v>2.5</v>
+      </c>
+      <c r="W236">
+        <v>1.48</v>
+      </c>
+      <c r="X236">
+        <v>5.4</v>
+      </c>
+      <c r="Y236">
+        <v>1.12</v>
+      </c>
+      <c r="Z236">
+        <v>2.8</v>
+      </c>
+      <c r="AA236">
+        <v>3.65</v>
+      </c>
+      <c r="AB236">
+        <v>2.4</v>
+      </c>
+      <c r="AC236">
+        <v>1</v>
+      </c>
+      <c r="AD236">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE236">
+        <v>1.22</v>
+      </c>
+      <c r="AF236">
+        <v>4.25</v>
+      </c>
+      <c r="AG236">
+        <v>1.72</v>
+      </c>
+      <c r="AH236">
+        <v>2.13</v>
+      </c>
+      <c r="AI236">
+        <v>1.57</v>
+      </c>
+      <c r="AJ236">
+        <v>2.3</v>
+      </c>
+      <c r="AK236">
+        <v>1.55</v>
+      </c>
+      <c r="AL236">
+        <v>1.25</v>
+      </c>
+      <c r="AM236">
+        <v>1.42</v>
+      </c>
+      <c r="AN236">
+        <v>1.58</v>
+      </c>
+      <c r="AO236">
+        <v>1.56</v>
+      </c>
+      <c r="AP236">
+        <v>1.55</v>
+      </c>
+      <c r="AQ236">
+        <v>1.54</v>
+      </c>
+      <c r="AR236">
+        <v>1.52</v>
+      </c>
+      <c r="AS236">
+        <v>1.61</v>
+      </c>
+      <c r="AT236">
+        <v>3.13</v>
+      </c>
+      <c r="AU236">
+        <v>2</v>
+      </c>
+      <c r="AV236">
+        <v>3</v>
+      </c>
+      <c r="AW236">
+        <v>3</v>
+      </c>
+      <c r="AX236">
+        <v>9</v>
+      </c>
+      <c r="AY236">
+        <v>5</v>
+      </c>
+      <c r="AZ236">
+        <v>12</v>
+      </c>
+      <c r="BA236">
+        <v>0</v>
+      </c>
+      <c r="BB236">
+        <v>4</v>
+      </c>
+      <c r="BC236">
+        <v>4</v>
+      </c>
+      <c r="BD236">
+        <v>2.1</v>
+      </c>
+      <c r="BE236">
+        <v>7.5</v>
+      </c>
+      <c r="BF236">
+        <v>1.95</v>
+      </c>
+      <c r="BG236">
+        <v>1.39</v>
+      </c>
+      <c r="BH236">
+        <v>2.78</v>
+      </c>
+      <c r="BI236">
+        <v>1.82</v>
+      </c>
+      <c r="BJ236">
+        <v>1.98</v>
+      </c>
+      <c r="BK236">
+        <v>2.11</v>
+      </c>
+      <c r="BL236">
+        <v>1.65</v>
+      </c>
+      <c r="BM236">
+        <v>2.78</v>
+      </c>
+      <c r="BN236">
+        <v>1.39</v>
+      </c>
+      <c r="BO236">
+        <v>3.78</v>
+      </c>
+      <c r="BP236">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7749697</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45620.1875</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>79</v>
+      </c>
+      <c r="H237" t="s">
+        <v>77</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>4</v>
+      </c>
+      <c r="O237" t="s">
+        <v>234</v>
+      </c>
+      <c r="P237" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q237">
+        <v>2.75</v>
+      </c>
+      <c r="R237">
+        <v>2.15</v>
+      </c>
+      <c r="S237">
+        <v>3.45</v>
+      </c>
+      <c r="T237">
+        <v>1.35</v>
+      </c>
+      <c r="U237">
+        <v>2.95</v>
+      </c>
+      <c r="V237">
+        <v>2.55</v>
+      </c>
+      <c r="W237">
+        <v>1.45</v>
+      </c>
+      <c r="X237">
+        <v>5.85</v>
+      </c>
+      <c r="Y237">
+        <v>1.1</v>
+      </c>
+      <c r="Z237">
+        <v>2.3</v>
+      </c>
+      <c r="AA237">
+        <v>3.63</v>
+      </c>
+      <c r="AB237">
+        <v>3.04</v>
+      </c>
+      <c r="AC237">
+        <v>1.04</v>
+      </c>
+      <c r="AD237">
+        <v>9</v>
+      </c>
+      <c r="AE237">
+        <v>1.25</v>
+      </c>
+      <c r="AF237">
+        <v>3.8</v>
+      </c>
+      <c r="AG237">
+        <v>1.73</v>
+      </c>
+      <c r="AH237">
+        <v>2.05</v>
+      </c>
+      <c r="AI237">
+        <v>1.55</v>
+      </c>
+      <c r="AJ237">
+        <v>2.2</v>
+      </c>
+      <c r="AK237">
+        <v>1.36</v>
+      </c>
+      <c r="AL237">
+        <v>1.25</v>
+      </c>
+      <c r="AM237">
+        <v>1.62</v>
+      </c>
+      <c r="AN237">
+        <v>1.61</v>
+      </c>
+      <c r="AO237">
+        <v>1.57</v>
+      </c>
+      <c r="AP237">
+        <v>1.59</v>
+      </c>
+      <c r="AQ237">
+        <v>1.55</v>
+      </c>
+      <c r="AR237">
+        <v>1.52</v>
+      </c>
+      <c r="AS237">
+        <v>1.52</v>
+      </c>
+      <c r="AT237">
+        <v>3.04</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>8</v>
+      </c>
+      <c r="AW237">
+        <v>6</v>
+      </c>
+      <c r="AX237">
+        <v>4</v>
+      </c>
+      <c r="AY237">
+        <v>13</v>
+      </c>
+      <c r="AZ237">
+        <v>13</v>
+      </c>
+      <c r="BA237">
+        <v>6</v>
+      </c>
+      <c r="BB237">
+        <v>7</v>
+      </c>
+      <c r="BC237">
+        <v>13</v>
+      </c>
+      <c r="BD237">
+        <v>1.86</v>
+      </c>
+      <c r="BE237">
+        <v>6.35</v>
+      </c>
+      <c r="BF237">
+        <v>2.51</v>
+      </c>
+      <c r="BG237">
+        <v>1.35</v>
+      </c>
+      <c r="BH237">
+        <v>2.74</v>
+      </c>
+      <c r="BI237">
+        <v>1.71</v>
+      </c>
+      <c r="BJ237">
+        <v>2.09</v>
+      </c>
+      <c r="BK237">
+        <v>2.16</v>
+      </c>
+      <c r="BL237">
+        <v>1.67</v>
+      </c>
+      <c r="BM237">
+        <v>2.78</v>
+      </c>
+      <c r="BN237">
+        <v>1.32</v>
+      </c>
+      <c r="BO237">
+        <v>3.94</v>
+      </c>
+      <c r="BP237">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
